--- a/01 - Base de donnée/01 - Exercices/01 - La Poste/jeu de données.xlsx
+++ b/01 - Base de donnée/01 - Exercices/01 - La Poste/jeu de données.xlsx
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -463,33 +463,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,18 +774,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -796,26 +800,26 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
@@ -944,8 +948,8 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="8">
         <v>3</v>
       </c>
@@ -978,8 +982,8 @@
       <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="11">
         <v>4</v>
       </c>
@@ -1000,60 +1004,60 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="20" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="23" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="26" t="s">
+      <c r="K10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1210,31 +1214,367 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
+      <c r="B16" s="31" t="str">
         <f>"INSERT INTO`"&amp; $B$3&amp; "` (`"&amp;$B$4&amp;"`,"&amp;$C$4&amp;"`) VALUES ( NULL, `"&amp;C5&amp;"`);"</f>
         <v>INSERT INTO`Bureaux` (`idBureau`,CodePostal`) VALUES ( NULL, `62200`);</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="str">
+        <f>"INSERT INTO`"&amp; $D$3&amp; "` (`"&amp;$D$4&amp;"`,"&amp;$E$4&amp;"`) VALUES ( NULL, `"&amp;E5&amp;"`);"</f>
+        <v>INSERT INTO`Centres_de_trie` (`idCentreDeTri`,nomCentreDeTrie`) VALUES ( NULL, `Toto`);</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="str">
         <f t="shared" ref="B17:B19" si="0">"INSERT INTO`"&amp; $B$3&amp; "` (`"&amp;$B$4&amp;"`,"&amp;$C$4&amp;"`) VALUES ( NULL, `"&amp;C6&amp;"`);"</f>
         <v>INSERT INTO`Bureaux` (`idBureau`,CodePostal`) VALUES ( NULL, `59000`);</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="str">
+        <f t="shared" ref="G17:G19" si="1">"INSERT INTO`"&amp; $D$3&amp; "` (`"&amp;$D$4&amp;"`,"&amp;$E$4&amp;"`) VALUES ( NULL, `"&amp;E6&amp;"`);"</f>
+        <v>INSERT INTO`Centres_de_trie` (`idCentreDeTri`,nomCentreDeTrie`) VALUES ( NULL, `Tata`);</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO`Bureaux` (`idBureau`,CodePostal`) VALUES ( NULL, `62340`);</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO`Centres_de_trie` (`idCentreDeTri`,nomCentreDeTrie`) VALUES ( NULL, `Tutu`);</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO`Bureaux` (`idBureau`,CodePostal`) VALUES ( NULL, `59800`);</v>
       </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO`Centres_de_trie` (`idCentreDeTri`,nomCentreDeTrie`) VALUES ( NULL, `Turlututu`);</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="str">
+        <f>"INSERT INTO`"&amp; $F$3&amp; "` (`"&amp;$F$4&amp;"`,"&amp;$G$4&amp;"`) VALUES ( NULL, `"&amp;G5&amp;"`);"</f>
+        <v>INSERT INTO`Types` (`idType`,libelleType`) VALUES ( NULL, `Colis`);</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="32" t="str">
+        <f>"INSERT INTO`"&amp; $M$4&amp; "` (`"&amp;$H$4&amp;"`,"&amp;$J$4&amp;"`,"&amp;$K$4&amp;"`,"&amp;$L$4&amp;","&amp;$I$4&amp;"``) VALUES ( NULL, `"&amp;J5&amp;"`, `"&amp;K5&amp;"`, `"&amp;L5&amp;"`, `"&amp;M5&amp;"`, `"&amp;I5&amp;"`);"</f>
+        <v>INSERT INTO`idType` (`idCourrier`,numDestinataire`,rueEmetteur`,numEmetteur,RueDestinataire``) VALUES ( NULL, `34`, `Square Marivaux`, `7`, `1`, `Rue de la madeleine`);</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="str">
+        <f>"INSERT INTO`"&amp; $F$3&amp; "` (`"&amp;$F$4&amp;"`,"&amp;$G$4&amp;"`) VALUES ( NULL, `"&amp;G6&amp;"`);"</f>
+        <v>INSERT INTO`Types` (`idType`,libelleType`) VALUES ( NULL, `Lettre`);</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="32" t="str">
+        <f t="shared" ref="G22:G25" si="2">"INSERT INTO`"&amp; $M$4&amp; "` (`"&amp;$H$4&amp;"`,"&amp;$J$4&amp;"`,"&amp;$K$4&amp;"`,"&amp;$L$4&amp;","&amp;$I$4&amp;"``) VALUES ( NULL, `"&amp;J6&amp;"`, `"&amp;K6&amp;"`, `"&amp;L6&amp;"`, `"&amp;M6&amp;"`, `"&amp;I6&amp;"`);"</f>
+        <v>INSERT INTO`idType` (`idCourrier`,numDestinataire`,rueEmetteur`,numEmetteur,RueDestinataire``) VALUES ( NULL, `9`, `Rue du Perou`, `14`, `2`, `Rue de toul`);</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G23" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO`idType` (`idCourrier`,numDestinataire`,rueEmetteur`,numEmetteur,RueDestinataire``) VALUES ( NULL, `43`, `Rue nationale `, `28`, `2`, `Rue du courgain`);</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G24" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO`idType` (`idCourrier`,numDestinataire`,rueEmetteur`,numEmetteur,RueDestinataire``) VALUES ( NULL, `27`, `place Dalton`, `9`, `1`, `Rue de Douai`);</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="str">
+        <f>"INSERT INTO`"&amp; $B$9&amp; "` (`"&amp;$B$10&amp;"`,"&amp;$D$10&amp;"``,"&amp;$C$10&amp;"`) VALUES ( NULL, `"&amp;D11&amp;"`, `"&amp;C11&amp;"`);"</f>
+        <v>INSERT INTO`Transports` (`idTransport`,taxeCarbone``,libelleTransport`) VALUES ( NULL, `2,5`, `DHL`);</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="str">
+        <f t="shared" ref="B26:B29" si="3">"INSERT INTO`"&amp; $B$9&amp; "` (`"&amp;$B$10&amp;"`,"&amp;$D$10&amp;"``,"&amp;$C$10&amp;"`) VALUES ( NULL, `"&amp;D12&amp;"`, `"&amp;C12&amp;"`);"</f>
+        <v>INSERT INTO`Transports` (`idTransport`,taxeCarbone``,libelleTransport`) VALUES ( NULL, `1`, `ChronoPost`);</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO`Transports` (`idTransport`,taxeCarbone``,libelleTransport`) VALUES ( NULL, `5`, `Mondial Relai`);</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="str">
+        <f>"INSERT INTO`"&amp; $B$9&amp; "` (`"&amp;$B$10&amp;"`,"&amp;$D$10&amp;"``,"&amp;$C$10&amp;"`) VALUES ( NULL, `"&amp;D14&amp;"`, `"&amp;C14&amp;"`);"</f>
+        <v>INSERT INTO`Transports` (`idTransport`,taxeCarbone``,libelleTransport`) VALUES ( NULL, `7,5`, `France Expresse`);</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="str">
+        <f>"INSERT INTO`"&amp; $E$9&amp; "` (`"&amp;$E$10&amp;"`,"&amp;$G$10&amp;"``,"&amp;$H$10&amp;"`,"&amp;$I$10&amp;"`,"&amp;$F$10&amp;"`) VALUES ( NULL, `"&amp;G11&amp;"`, `"&amp;H11&amp;", `"&amp;I11&amp;"`, `"&amp;F11&amp;");"</f>
+        <v>INSERT INTO`Livraisons` (`idLivraison`,idCourrier``,dateEnvoie`,dateReception`,idBureau`) VALUES ( NULL, `1`, `44477, `44478`, `2);</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" t="str">
+        <f>"INSERT INTO`"&amp; $M$10&amp; "` (`"&amp;$J$9&amp;"`,"&amp;$J$10&amp;"`,"&amp;$K$10&amp;"`,"&amp;$L$10&amp;"`) VALUES ( NULL, `"&amp;J11&amp;"`, `"&amp;K11&amp;"`, `"&amp;L11&amp;"`);"</f>
+        <v>INSERT INTO`idCentreDeTri` (`Acheminements`,idAcheminement`,idBureau`,idStransport`) VALUES ( NULL, `1`, `4`, `2`);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="str">
+        <f t="shared" ref="B31:B33" si="4">"INSERT INTO`"&amp; $E$9&amp; "` (`"&amp;$E$10&amp;"`,"&amp;$G$10&amp;"``,"&amp;$H$10&amp;"`,"&amp;$I$10&amp;"`,"&amp;$F$10&amp;"`) VALUES ( NULL, `"&amp;G12&amp;"`, `"&amp;H12&amp;", `"&amp;I12&amp;"`, `"&amp;F12&amp;");"</f>
+        <v>INSERT INTO`Livraisons` (`idLivraison`,idCourrier``,dateEnvoie`,dateReception`,idBureau`) VALUES ( NULL, `2`, `44478, `44479`, `3);</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" t="str">
+        <f t="shared" ref="K31:K33" si="5">"INSERT INTO`"&amp; $M$10&amp; "` (`"&amp;$J$9&amp;"`,"&amp;$J$10&amp;"`,"&amp;$K$10&amp;"`,"&amp;$L$10&amp;"`) VALUES ( NULL, `"&amp;J12&amp;"`, `"&amp;K12&amp;"`, `"&amp;L12&amp;"`);"</f>
+        <v>INSERT INTO`idCentreDeTri` (`Acheminements`,idAcheminement`,idBureau`,idStransport`) VALUES ( NULL, `2`, `1`, `2`);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO`Livraisons` (`idLivraison`,idCourrier``,dateEnvoie`,dateReception`,idBureau`) VALUES ( NULL, `3`, `44479, `44480`, `3);</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO`idCentreDeTri` (`Acheminements`,idAcheminement`,idBureau`,idStransport`) VALUES ( NULL, `3`, `2`, `1`);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO`Livraisons` (`idLivraison`,idCourrier``,dateEnvoie`,dateReception`,idBureau`) VALUES ( NULL, `4`, `44480, `44481`, `4);</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO`idCentreDeTri` (`Acheminements`,idAcheminement`,idBureau`,idStransport`) VALUES ( NULL, `4`, `4`, `3`);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="30">
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="D3:E3"/>
